--- a/biology/Zoologie/Butheolus/Butheolus.xlsx
+++ b/biology/Zoologie/Butheolus/Butheolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butheolus est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent au Proche-Orient et en Afrique de l'Est.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (27/09/2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (27/09/2020) :
 Butheolus andersoni (Pocock, 1895)
 Butheolus gallagheri Vachon, 1980
 Butheolus hallani Lourenço &amp; Rossi, 2017
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1882 : « Viaggio ad Assab nel Mar Rosso, dei signori G. Doria ed O.Beccari con il R.Avviso "Esploratore" dal 16. Novembre 1879 al 26. Febbraio 1880. II. Étude sur les Arachnides de l'Yemen méridional. » Annali del Museo Civico di Storia Naturale di Genova, vol. 18, p. 207-260 (texte intégral).</t>
         </is>
